--- a/N 9616 UH ROSIDI.xlsx
+++ b/N 9616 UH ROSIDI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>17/02/2024</t>
+  </si>
+  <si>
+    <t>16/3/2024</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,47 +1446,101 @@
       <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>249176</v>
+      </c>
+      <c r="F36" s="1">
+        <v>256176</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>34</v>
       </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>35</v>
       </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>36</v>
       </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>37</v>
       </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>38</v>
       </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>39</v>
       </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5">

--- a/N 9616 UH ROSIDI.xlsx
+++ b/N 9616 UH ROSIDI.xlsx
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,6 +1459,7 @@
         <v>249176</v>
       </c>
       <c r="F36" s="1">
+        <f>7000+E36</f>
         <v>256176</v>
       </c>
       <c r="G36" s="1" t="s">
